--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -562,7 +562,7 @@
         <v>2025-07-20T22:04:42.378Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-20T22:05:02.400Z</v>
+        <v>2025-07-20T23:05:34.445Z</v>
       </c>
       <c r="L5" t="str">
         <v>67277</v>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -469,7 +469,7 @@
         <v>2025-07-20T19:45:14.973Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-07-20T21:53:40.914Z</v>
+        <v>2025-07-20T23:20:11.992Z</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         <v>2025-07-20T22:04:42.378Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-20T23:05:34.445Z</v>
+        <v>2025-07-20T23:19:48.487Z</v>
       </c>
       <c r="L5" t="str">
         <v>67277</v>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,15 @@
       <c r="L1" t="str">
         <v>warehouseId</v>
       </c>
+      <c r="M1" t="str">
+        <v>address</v>
+      </c>
+      <c r="N1" t="str">
+        <v>city</v>
+      </c>
+      <c r="O1" t="str">
+        <v>pincode</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -469,7 +478,7 @@
         <v>2025-07-20T19:45:14.973Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-07-20T23:20:11.992Z</v>
+        <v>2025-07-21T20:14:37.217Z</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +507,7 @@
         <v>2025-07-20T19:43:36.422Z</v>
       </c>
       <c r="J3" t="str">
-        <v>2025-07-20T21:16:34.906Z</v>
+        <v>2025-07-21T22:07:25.268Z</v>
       </c>
       <c r="K3" t="str">
         <v>+1234567891</v>
@@ -535,19 +544,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>user_1753045247077_gl3uzbu4f</v>
+        <v>user_1753125931723_8ftkkx2pf</v>
       </c>
       <c r="B5" t="str">
-        <v>Mohit</v>
+        <v>Adarsh</v>
       </c>
       <c r="C5" t="str">
-        <v>dubeymohit50@gmail.com</v>
+        <v>adarshshridhar12@gmail.com</v>
       </c>
       <c r="D5" t="str">
-        <v>8120773644</v>
+        <v>7566456376</v>
       </c>
       <c r="E5" t="str">
-        <v>$2a$12$J2rD9yJzafG0EmN1NH8Ph.GYsyuTQretVp3gMKgt2WxZPkDk1ukNu</v>
+        <v>$2a$12$NNN73kV6fT0Owah2YoxLyOexUXwOuXKVu6b5nqp116aOvkgMuR//6</v>
       </c>
       <c r="F5" t="str">
         <v>vendor</v>
@@ -556,21 +565,68 @@
         <v>active</v>
       </c>
       <c r="H5" t="str">
-        <v>2025-07-20T21:00:47.077Z</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2025-07-20T22:04:42.378Z</v>
+        <v>2025-07-21T19:25:31.723Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-20T23:19:48.487Z</v>
+        <v>2025-07-21T22:20:42.736Z</v>
       </c>
       <c r="L5" t="str">
+        <v>67311</v>
+      </c>
+      <c r="M5" t="str">
+        <v>402, Kailash Niwas, 1st Cross, SGR Dental College Road, Munnekollal</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Bengaluru</v>
+      </c>
+      <c r="O5" t="str">
+        <v>560037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>user_1753128934876_j7arnm6mt</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Mohit</v>
+      </c>
+      <c r="C6" t="str">
+        <v>dubeymohit50@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>8120773644</v>
+      </c>
+      <c r="E6" t="str">
+        <v>$2a$12$IsgDJSet6YTzt8xv/tAW5uQK8QowPihWAeMpFzJ/DzsTaYTq7lL6y</v>
+      </c>
+      <c r="F6" t="str">
+        <v>vendor</v>
+      </c>
+      <c r="G6" t="str">
+        <v>active</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2025-07-21T20:15:34.876Z</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2025-07-21T22:15:25.140Z</v>
+      </c>
+      <c r="L6" t="str">
         <v>67277</v>
+      </c>
+      <c r="M6" t="str">
+        <v>380/14/3, jashore road south, satyam appartment</v>
+      </c>
+      <c r="N6" t="str">
+        <v>North 24 Parganas</v>
+      </c>
+      <c r="O6" t="str">
+        <v>700129</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -507,7 +507,7 @@
         <v>2025-07-20T19:43:36.422Z</v>
       </c>
       <c r="J3" t="str">
-        <v>2025-07-21T22:07:25.268Z</v>
+        <v>2025-07-22T00:56:55.789Z</v>
       </c>
       <c r="K3" t="str">
         <v>+1234567891</v>
@@ -568,7 +568,7 @@
         <v>2025-07-21T19:25:31.723Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-21T22:20:42.736Z</v>
+        <v>2025-07-22T00:45:44.642Z</v>
       </c>
       <c r="L5" t="str">
         <v>67311</v>
@@ -609,7 +609,7 @@
         <v>2025-07-21T20:15:34.876Z</v>
       </c>
       <c r="J6" t="str">
-        <v>2025-07-21T22:15:25.140Z</v>
+        <v>2025-07-22T01:00:21.156Z</v>
       </c>
       <c r="L6" t="str">
         <v>67277</v>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -568,7 +568,7 @@
         <v>2025-07-21T19:25:31.723Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-21T22:20:42.736Z</v>
+        <v>2025-07-21T23:31:21.048Z</v>
       </c>
       <c r="L5" t="str">
         <v>67311</v>
@@ -609,7 +609,7 @@
         <v>2025-07-21T20:15:34.876Z</v>
       </c>
       <c r="J6" t="str">
-        <v>2025-07-21T22:15:25.140Z</v>
+        <v>2025-07-22T16:59:11.393Z</v>
       </c>
       <c r="L6" t="str">
         <v>67277</v>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -507,7 +507,7 @@
         <v>2025-07-20T19:43:36.422Z</v>
       </c>
       <c r="J3" t="str">
-        <v>2025-07-22T00:56:55.789Z</v>
+        <v>2025-07-21T22:07:25.268Z</v>
       </c>
       <c r="K3" t="str">
         <v>+1234567891</v>
@@ -568,7 +568,7 @@
         <v>2025-07-21T19:25:31.723Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-22T00:45:44.642Z</v>
+        <v>2025-07-21T23:31:21.048Z</v>
       </c>
       <c r="L5" t="str">
         <v>67311</v>
@@ -609,7 +609,7 @@
         <v>2025-07-21T20:15:34.876Z</v>
       </c>
       <c r="J6" t="str">
-        <v>2025-07-22T01:00:21.156Z</v>
+        <v>2025-07-22T16:59:11.393Z</v>
       </c>
       <c r="L6" t="str">
         <v>67277</v>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -434,18 +434,24 @@
         <v>lastLogin</v>
       </c>
       <c r="K1" t="str">
+        <v>token</v>
+      </c>
+      <c r="L1" t="str">
+        <v>active_session</v>
+      </c>
+      <c r="M1" t="str">
         <v>contactNumber</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>warehouseId</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>address</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>city</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>pincode</v>
       </c>
     </row>
@@ -478,7 +484,13 @@
         <v>2025-07-20T19:45:14.973Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-07-21T20:14:37.217Z</v>
+        <v>2025-07-23T18:15:46.122Z</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4c68c025-900e-4e21-902d-52f570a1d23f</v>
+      </c>
+      <c r="L2" t="str">
+        <v>FALSE</v>
       </c>
     </row>
     <row r="3">
@@ -507,9 +519,15 @@
         <v>2025-07-20T19:43:36.422Z</v>
       </c>
       <c r="J3" t="str">
-        <v>2025-07-21T22:07:25.268Z</v>
+        <v>2025-07-23T18:09:26.038Z</v>
       </c>
       <c r="K3" t="str">
+        <v>33fdd77e-3b6b-40a3-b464-98a44403ab7c</v>
+      </c>
+      <c r="L3" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="M3" t="str">
         <v>+1234567891</v>
       </c>
     </row>
@@ -538,7 +556,13 @@
       <c r="H4" t="str">
         <v>2025-07-20T19:43:36.727Z</v>
       </c>
+      <c r="K4" t="str">
+        <v>a1933e0c-0a0d-4308-90a9-6a3c24dbabf0</v>
+      </c>
       <c r="L4" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="N4" t="str">
         <v>6430</v>
       </c>
     </row>
@@ -568,18 +592,24 @@
         <v>2025-07-21T19:25:31.723Z</v>
       </c>
       <c r="J5" t="str">
-        <v>2025-07-21T23:31:21.048Z</v>
+        <v>2025-07-23T20:58:18.933Z</v>
+      </c>
+      <c r="K5" t="str">
+        <v>084cbcfa-1f0e-49dd-b08a-463bd32f39e3</v>
       </c>
       <c r="L5" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="N5" t="str">
         <v>67311</v>
       </c>
-      <c r="M5" t="str">
+      <c r="O5" t="str">
         <v>402, Kailash Niwas, 1st Cross, SGR Dental College Road, Munnekollal</v>
       </c>
-      <c r="N5" t="str">
+      <c r="P5" t="str">
         <v>Bengaluru</v>
       </c>
-      <c r="O5" t="str">
+      <c r="Q5" t="str">
         <v>560037</v>
       </c>
     </row>
@@ -597,7 +627,7 @@
         <v>8120773644</v>
       </c>
       <c r="E6" t="str">
-        <v>$2a$12$IsgDJSet6YTzt8xv/tAW5uQK8QowPihWAeMpFzJ/DzsTaYTq7lL6y</v>
+        <v>$2a$12$RJ68RUA5TiMFSl/KCRI8j.3fQSiDivosCFmYtZQEpdXfaq6Ut2r8u</v>
       </c>
       <c r="F6" t="str">
         <v>vendor</v>
@@ -608,25 +638,34 @@
       <c r="H6" t="str">
         <v>2025-07-21T20:15:34.876Z</v>
       </c>
+      <c r="I6" t="str">
+        <v>2025-07-23T18:16:22.943Z</v>
+      </c>
       <c r="J6" t="str">
-        <v>2025-07-22T16:59:11.393Z</v>
+        <v>2025-07-23T21:07:08.422Z</v>
+      </c>
+      <c r="K6" t="str">
+        <v>883381e9-e8be-4c16-b4ed-52d51079a9f7</v>
       </c>
       <c r="L6" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="N6" t="str">
         <v>67277</v>
       </c>
-      <c r="M6" t="str">
+      <c r="O6" t="str">
         <v>380/14/3, jashore road south, satyam appartment</v>
       </c>
-      <c r="N6" t="str">
+      <c r="P6" t="str">
         <v>North 24 Parganas</v>
       </c>
-      <c r="O6" t="str">
+      <c r="Q6" t="str">
         <v>700129</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
         <v>2025-07-20T19:45:14.973Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-07-23T18:15:46.122Z</v>
+        <v>2025-07-29T08:34:05.347Z</v>
       </c>
       <c r="K2" t="str">
         <v>4c68c025-900e-4e21-902d-52f570a1d23f</v>
@@ -601,16 +601,16 @@
         <v>TRUE</v>
       </c>
       <c r="N5" t="str">
-        <v>67311</v>
+        <v>67277</v>
       </c>
       <c r="O5" t="str">
-        <v>402, Kailash Niwas, 1st Cross, SGR Dental College Road, Munnekollal</v>
+        <v>380/14/3, jashore road south, satyam appartment</v>
       </c>
       <c r="P5" t="str">
-        <v>Bengaluru</v>
+        <v>North 24 Parganas</v>
       </c>
       <c r="Q5" t="str">
-        <v>560037</v>
+        <v>700129</v>
       </c>
     </row>
     <row r="6">
@@ -651,21 +651,92 @@
         <v>TRUE</v>
       </c>
       <c r="N6" t="str">
-        <v>67277</v>
+        <v>67311</v>
       </c>
       <c r="O6" t="str">
-        <v>380/14/3, jashore road south, satyam appartment</v>
+        <v>402, Kailash Niwas, 1st Cross, SGR Dental College Road, Munnekollal</v>
       </c>
       <c r="P6" t="str">
-        <v>North 24 Parganas</v>
+        <v>Bengaluru</v>
       </c>
       <c r="Q6" t="str">
-        <v>700129</v>
+        <v>560037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>user_1753778105583_0ttr8yxyi</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Keval</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ravatkeval@gmail.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>7024449697</v>
+      </c>
+      <c r="E7" t="str">
+        <v>$2a$12$eTlPR0eknQddcJ.G2Y1/UeeyuKv5hnhHFd0TyDaZb0TkVpbp67ywa</v>
+      </c>
+      <c r="F7" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G7" t="str">
+        <v>active</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2025-07-29T08:35:05.583Z</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2025-07-30T19:43:26.687Z</v>
+      </c>
+      <c r="K7" t="str">
+        <v>5afbbbed-614a-4fea-87aa-01fe32f42a0b</v>
+      </c>
+      <c r="L7" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="M7" t="str">
+        <v>7024449697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>admin_1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Admin User</v>
+      </c>
+      <c r="C8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D8" t="str">
+        <v>+1234567893</v>
+      </c>
+      <c r="E8" t="str">
+        <v>$2a$12$hjCtDtR/N/XzWqNlcr7OPOss3.W2Pr1GqNi1tyVCMGRBM0KplQ7Ym</v>
+      </c>
+      <c r="F8" t="str">
+        <v>admin</v>
+      </c>
+      <c r="G8" t="str">
+        <v>active</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2025-07-29T19:17:34.137Z</v>
+      </c>
+      <c r="K8" t="str">
+        <v>53f3eeb9-e2c2-4c9e-83d0-babc87c1103b</v>
+      </c>
+      <c r="L8" t="str">
+        <v>FALSE</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -484,7 +484,7 @@
         <v>2025-07-20T19:45:14.973Z</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-07-29T08:34:05.347Z</v>
+        <v>2025-09-09T19:08:06.309Z</v>
       </c>
       <c r="K2" t="str">
         <v>4c68c025-900e-4e21-902d-52f570a1d23f</v>
@@ -556,6 +556,9 @@
       <c r="H4" t="str">
         <v>2025-07-20T19:43:36.727Z</v>
       </c>
+      <c r="I4" t="str">
+        <v>2025-09-09T19:45:52.299Z</v>
+      </c>
       <c r="K4" t="str">
         <v>a1933e0c-0a0d-4308-90a9-6a3c24dbabf0</v>
       </c>
@@ -563,7 +566,16 @@
         <v>FALSE</v>
       </c>
       <c r="N4" t="str">
-        <v>6430</v>
+        <v>78115</v>
+      </c>
+      <c r="O4" t="str">
+        <v>D 18, PP Dais Compound Hindi Nagar</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Mumbai</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>400060</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +583,7 @@
         <v>user_1753125931723_8ftkkx2pf</v>
       </c>
       <c r="B5" t="str">
-        <v>Adarsh</v>
+        <v>Adarsh 1</v>
       </c>
       <c r="C5" t="str">
         <v>adarshshridhar12@gmail.com</v>
@@ -580,7 +592,7 @@
         <v>7566456376</v>
       </c>
       <c r="E5" t="str">
-        <v>$2a$12$NNN73kV6fT0Owah2YoxLyOexUXwOuXKVu6b5nqp116aOvkgMuR//6</v>
+        <v>$2a$12$uCApHoOvJi75.zsKLh5am.gPRfzQomzifH564xefnV5tDaWcml20W</v>
       </c>
       <c r="F5" t="str">
         <v>vendor</v>
@@ -591,8 +603,11 @@
       <c r="H5" t="str">
         <v>2025-07-21T19:25:31.723Z</v>
       </c>
+      <c r="I5" t="str">
+        <v>2025-09-03T08:05:48.929Z</v>
+      </c>
       <c r="J5" t="str">
-        <v>2025-07-23T20:58:18.933Z</v>
+        <v>2025-09-09T22:14:33.496Z</v>
       </c>
       <c r="K5" t="str">
         <v>084cbcfa-1f0e-49dd-b08a-463bd32f39e3</v>
@@ -627,7 +642,7 @@
         <v>8120773644</v>
       </c>
       <c r="E6" t="str">
-        <v>$2a$12$RJ68RUA5TiMFSl/KCRI8j.3fQSiDivosCFmYtZQEpdXfaq6Ut2r8u</v>
+        <v>$2a$12$qRCdKll1dh97HJ3yBCMzMuyspZ9xOvTJPCsGo2MHjkntupJhAOLLu</v>
       </c>
       <c r="F6" t="str">
         <v>vendor</v>
@@ -639,10 +654,10 @@
         <v>2025-07-21T20:15:34.876Z</v>
       </c>
       <c r="I6" t="str">
-        <v>2025-07-23T18:16:22.943Z</v>
+        <v>2025-09-03T07:55:32.808Z</v>
       </c>
       <c r="J6" t="str">
-        <v>2025-07-23T21:07:08.422Z</v>
+        <v>2025-09-03T09:06:22.984Z</v>
       </c>
       <c r="K6" t="str">
         <v>883381e9-e8be-4c16-b4ed-52d51079a9f7</v>
@@ -689,7 +704,7 @@
         <v>2025-07-29T08:35:05.583Z</v>
       </c>
       <c r="J7" t="str">
-        <v>2025-07-30T19:43:26.687Z</v>
+        <v>2025-09-10T07:26:27.570Z</v>
       </c>
       <c r="K7" t="str">
         <v>5afbbbed-614a-4fea-87aa-01fe32f42a0b</v>
@@ -701,42 +716,9 @@
         <v>7024449697</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>admin_1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Admin User</v>
-      </c>
-      <c r="C8" t="str">
-        <v>admin</v>
-      </c>
-      <c r="D8" t="str">
-        <v>+1234567893</v>
-      </c>
-      <c r="E8" t="str">
-        <v>$2a$12$hjCtDtR/N/XzWqNlcr7OPOss3.W2Pr1GqNi1tyVCMGRBM0KplQ7Ym</v>
-      </c>
-      <c r="F8" t="str">
-        <v>admin</v>
-      </c>
-      <c r="G8" t="str">
-        <v>active</v>
-      </c>
-      <c r="H8" t="str">
-        <v>2025-07-29T19:17:34.137Z</v>
-      </c>
-      <c r="K8" t="str">
-        <v>53f3eeb9-e2c2-4c9e-83d0-babc87c1103b</v>
-      </c>
-      <c r="L8" t="str">
-        <v>FALSE</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q7"/>
   </ignoredErrors>
 </worksheet>
 </file>